--- a/folder1/folder1.xlsx
+++ b/folder1/folder1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Projects\internship\consolidacion_pw\folder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D79E9-F72D-4B11-8589-044F760ACBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFEAAA-8C67-477E-BCE0-B5D117E8A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,6 +94,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8390C56-464F-7FCC-175E-215DCFECB99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1352550" y="638175"/>
+          <a:ext cx="2800350" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EEB999-F19F-4454-976A-B36ABBE0D3F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4552950" y="2495550"/>
+          <a:ext cx="2800350" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB9A0F1-4A6D-46B2-A067-346F9DDC719D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7715250" y="4495800"/>
+          <a:ext cx="2800350" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,7 +975,7 @@
   <dimension ref="E5:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +1155,6 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1043,5 +1230,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>